--- a/data/exampleStochastic/Power_VRESProfiles.xlsx
+++ b/data/exampleStochastic/Power_VRESProfiles.xlsx
@@ -1,22 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FelixAuer\Git\LEGO-Pyomo\data\exampleStochastic\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EF5C9A-A43D-4CA2-838E-3733460D9E43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15757BFC-6579-4368-970F-2E31785AF7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32565" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34230" yWindow="-21705" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ScenarioA" sheetId="1" r:id="rId1"/>
     <sheet name="ScenarioB" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -4209,34 +4222,34 @@
         <v>0</v>
       </c>
       <c r="N8" s="14">
-        <v>5.1999999999999998E-3</v>
+        <v>5.0554473128866101E-3</v>
       </c>
       <c r="O8" s="14">
-        <v>0.1346</v>
+        <v>0.13403374097262963</v>
       </c>
       <c r="P8" s="14">
-        <v>0.3155</v>
+        <v>0.3051298039740733</v>
       </c>
       <c r="Q8" s="14">
-        <v>0.47460000000000002</v>
+        <v>0.50293452156088636</v>
       </c>
       <c r="R8" s="14">
-        <v>0.57179999999999997</v>
+        <v>0.60153191605672596</v>
       </c>
       <c r="S8" s="14">
-        <v>0.59519999999999995</v>
+        <v>0.60625134203812647</v>
       </c>
       <c r="T8" s="14">
-        <v>0.54730000000000001</v>
+        <v>0.60124680815001486</v>
       </c>
       <c r="U8" s="14">
-        <v>0.43280000000000002</v>
+        <v>0.43942411429267014</v>
       </c>
       <c r="V8" s="14">
-        <v>0.25779999999999997</v>
+        <v>0.27917348407626874</v>
       </c>
       <c r="W8" s="14">
-        <v>5.5100000000000003E-2</v>
+        <v>5.8627161136739749E-2</v>
       </c>
       <c r="X8" s="14">
         <v>0</v>
@@ -4296,34 +4309,34 @@
         <v>0</v>
       </c>
       <c r="N9" s="14">
-        <v>5.1999999999999998E-3</v>
+        <v>5.6165848620328591E-3</v>
       </c>
       <c r="O9" s="14">
-        <v>0.1346</v>
+        <v>0.12881735473660313</v>
       </c>
       <c r="P9" s="14">
-        <v>0.3155</v>
+        <v>0.32791761528640939</v>
       </c>
       <c r="Q9" s="14">
-        <v>0.47460000000000002</v>
+        <v>0.47139456060440316</v>
       </c>
       <c r="R9" s="14">
-        <v>0.57179999999999997</v>
+        <v>0.55773117227941149</v>
       </c>
       <c r="S9" s="14">
-        <v>0.59519999999999995</v>
+        <v>0.56217069414618781</v>
       </c>
       <c r="T9" s="14">
-        <v>0.54730000000000001</v>
+        <v>0.56675422104800544</v>
       </c>
       <c r="U9" s="14">
-        <v>0.43280000000000002</v>
+        <v>0.45602475940613874</v>
       </c>
       <c r="V9" s="14">
-        <v>0.25779999999999997</v>
+        <v>0.24564789373897936</v>
       </c>
       <c r="W9" s="14">
-        <v>5.5100000000000003E-2</v>
+        <v>5.8461757904556787E-2</v>
       </c>
       <c r="X9" s="14">
         <v>0</v>
@@ -4362,76 +4375,76 @@
         <v>54</v>
       </c>
       <c r="G10" s="14">
-        <v>0.30109999999999998</v>
+        <v>0.27956765776305348</v>
       </c>
       <c r="H10" s="14">
-        <v>0.3024</v>
+        <v>0.3275998632552764</v>
       </c>
       <c r="I10" s="14">
-        <v>0.3009</v>
+        <v>0.30394049421117691</v>
       </c>
       <c r="J10" s="14">
-        <v>0.28860000000000002</v>
+        <v>0.3146857118037788</v>
       </c>
       <c r="K10" s="14">
-        <v>0.27179999999999999</v>
+        <v>0.29259020112827311</v>
       </c>
       <c r="L10" s="14">
-        <v>0.25519999999999998</v>
+        <v>0.23540670342411185</v>
       </c>
       <c r="M10" s="14">
-        <v>0.24229999999999999</v>
+        <v>0.26628665648562144</v>
       </c>
       <c r="N10" s="14">
-        <v>0.23219999999999999</v>
+        <v>0.24288536573872685</v>
       </c>
       <c r="O10" s="14">
-        <v>0.2203</v>
+        <v>0.23340477340613636</v>
       </c>
       <c r="P10" s="14">
-        <v>0.2059</v>
+        <v>0.19993574199371045</v>
       </c>
       <c r="Q10" s="14">
-        <v>0.19689999999999999</v>
+        <v>0.20398449606358957</v>
       </c>
       <c r="R10" s="14">
-        <v>0.19750000000000001</v>
+        <v>0.21298687618096562</v>
       </c>
       <c r="S10" s="14">
-        <v>0.19769999999999999</v>
+        <v>0.20820845324912848</v>
       </c>
       <c r="T10" s="14">
-        <v>0.1948</v>
+        <v>0.19001428141400623</v>
       </c>
       <c r="U10" s="14">
-        <v>0.18720000000000001</v>
+        <v>0.18581633593545363</v>
       </c>
       <c r="V10" s="14">
-        <v>0.17560000000000001</v>
+        <v>0.1781164102019456</v>
       </c>
       <c r="W10" s="14">
-        <v>0.1789</v>
+        <v>0.17971150342617284</v>
       </c>
       <c r="X10" s="14">
-        <v>0.1923</v>
+        <v>0.2081433402156152</v>
       </c>
       <c r="Y10" s="14">
-        <v>0.20449999999999999</v>
+        <v>0.18610448750243314</v>
       </c>
       <c r="Z10" s="14">
-        <v>0.21179999999999999</v>
+        <v>0.19569570213631948</v>
       </c>
       <c r="AA10" s="14">
-        <v>0.2165</v>
+        <v>0.22060671130285817</v>
       </c>
       <c r="AB10" s="14">
-        <v>0.222</v>
+        <v>0.20571452494588338</v>
       </c>
       <c r="AC10" s="14">
-        <v>0.23069999999999999</v>
+        <v>0.24112046866607656</v>
       </c>
       <c r="AD10" s="14">
-        <v>0.2427</v>
+        <v>0.23570075659289566</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -4449,76 +4462,76 @@
         <v>54</v>
       </c>
       <c r="G11" s="14">
-        <v>0.30109999999999998</v>
+        <v>0.31090904704298822</v>
       </c>
       <c r="H11" s="14">
-        <v>0.3024</v>
+        <v>0.30807530202400629</v>
       </c>
       <c r="I11" s="14">
-        <v>0.3009</v>
+        <v>0.28584879640113992</v>
       </c>
       <c r="J11" s="14">
-        <v>0.28860000000000002</v>
+        <v>0.29487047209185446</v>
       </c>
       <c r="K11" s="14">
-        <v>0.27179999999999999</v>
+        <v>0.2672475198688013</v>
       </c>
       <c r="L11" s="14">
-        <v>0.25519999999999998</v>
+        <v>0.23460161937848598</v>
       </c>
       <c r="M11" s="14">
-        <v>0.24229999999999999</v>
+        <v>0.22051864761884948</v>
       </c>
       <c r="N11" s="14">
-        <v>0.23219999999999999</v>
+        <v>0.23475427740028196</v>
       </c>
       <c r="O11" s="14">
-        <v>0.2203</v>
+        <v>0.21413728690768644</v>
       </c>
       <c r="P11" s="14">
-        <v>0.2059</v>
+        <v>0.20447674630602064</v>
       </c>
       <c r="Q11" s="14">
-        <v>0.19689999999999999</v>
+        <v>0.21321321543179594</v>
       </c>
       <c r="R11" s="14">
-        <v>0.19750000000000001</v>
+        <v>0.18081686157240487</v>
       </c>
       <c r="S11" s="14">
-        <v>0.19769999999999999</v>
+        <v>0.18225608891385273</v>
       </c>
       <c r="T11" s="14">
-        <v>0.1948</v>
+        <v>0.204804448950893</v>
       </c>
       <c r="U11" s="14">
-        <v>0.18720000000000001</v>
+        <v>0.20427791446259208</v>
       </c>
       <c r="V11" s="14">
-        <v>0.17560000000000001</v>
+        <v>0.18217339268314087</v>
       </c>
       <c r="W11" s="14">
-        <v>0.1789</v>
+        <v>0.18865426972838936</v>
       </c>
       <c r="X11" s="14">
-        <v>0.1923</v>
+        <v>0.18599177057136393</v>
       </c>
       <c r="Y11" s="14">
-        <v>0.20449999999999999</v>
+        <v>0.19752548686810198</v>
       </c>
       <c r="Z11" s="14">
-        <v>0.21179999999999999</v>
+        <v>0.23297714387723967</v>
       </c>
       <c r="AA11" s="14">
-        <v>0.2165</v>
+        <v>0.22910837669177861</v>
       </c>
       <c r="AB11" s="14">
-        <v>0.222</v>
+        <v>0.20362393524685737</v>
       </c>
       <c r="AC11" s="14">
-        <v>0.23069999999999999</v>
+        <v>0.22681827369799895</v>
       </c>
       <c r="AD11" s="14">
-        <v>0.2427</v>
+        <v>0.26614839329581214</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -4551,49 +4564,49 @@
         <v>0</v>
       </c>
       <c r="L12" s="14">
-        <v>1.5900000000000001E-2</v>
+        <v>1.566216066394539E-2</v>
       </c>
       <c r="M12" s="14">
-        <v>0.1164</v>
+        <v>0.11878161234911337</v>
       </c>
       <c r="N12" s="14">
-        <v>0.2989</v>
+        <v>0.3004749960484846</v>
       </c>
       <c r="O12" s="14">
-        <v>0.49909999999999999</v>
+        <v>0.50875306553408173</v>
       </c>
       <c r="P12" s="14">
-        <v>0.66339999999999999</v>
+        <v>0.68948455953484022</v>
       </c>
       <c r="Q12" s="14">
-        <v>0.77500000000000002</v>
+        <v>0.83736648080345222</v>
       </c>
       <c r="R12" s="14">
-        <v>0.83050000000000002</v>
+        <v>0.82475457367033889</v>
       </c>
       <c r="S12" s="14">
-        <v>0.83179999999999998</v>
+        <v>0.91392952669709482</v>
       </c>
       <c r="T12" s="14">
-        <v>0.78049999999999997</v>
+        <v>0.7496146305738024</v>
       </c>
       <c r="U12" s="14">
-        <v>0.67889999999999995</v>
+        <v>0.69972935115108725</v>
       </c>
       <c r="V12" s="14">
-        <v>0.53159999999999996</v>
+        <v>0.56142254094560728</v>
       </c>
       <c r="W12" s="14">
-        <v>0.35249999999999998</v>
+        <v>0.37030997779301317</v>
       </c>
       <c r="X12" s="14">
-        <v>0.16969999999999999</v>
+        <v>0.18493126340828359</v>
       </c>
       <c r="Y12" s="14">
-        <v>4.4699999999999997E-2</v>
+        <v>4.6343447898440318E-2</v>
       </c>
       <c r="Z12" s="14">
-        <v>1.6000000000000001E-3</v>
+        <v>1.73740577024566E-3</v>
       </c>
       <c r="AA12" s="14">
         <v>0</v>
@@ -4638,49 +4651,49 @@
         <v>0</v>
       </c>
       <c r="L13" s="14">
-        <v>1.5900000000000001E-2</v>
+        <v>1.4853739527179298E-2</v>
       </c>
       <c r="M13" s="14">
-        <v>0.1164</v>
+        <v>0.11743259857729785</v>
       </c>
       <c r="N13" s="14">
-        <v>0.2989</v>
+        <v>0.30972292276276814</v>
       </c>
       <c r="O13" s="14">
-        <v>0.49909999999999999</v>
+        <v>0.47292255846196829</v>
       </c>
       <c r="P13" s="14">
-        <v>0.66339999999999999</v>
+        <v>0.67661500709689548</v>
       </c>
       <c r="Q13" s="14">
-        <v>0.77500000000000002</v>
+        <v>0.82811899004359879</v>
       </c>
       <c r="R13" s="14">
-        <v>0.83050000000000002</v>
+        <v>0.86238470255391875</v>
       </c>
       <c r="S13" s="14">
-        <v>0.83179999999999998</v>
+        <v>0.78115585475625959</v>
       </c>
       <c r="T13" s="14">
-        <v>0.78049999999999997</v>
+        <v>0.81624771509534766</v>
       </c>
       <c r="U13" s="14">
-        <v>0.67889999999999995</v>
+        <v>0.66596606185842122</v>
       </c>
       <c r="V13" s="14">
-        <v>0.53159999999999996</v>
+        <v>0.51570103828413583</v>
       </c>
       <c r="W13" s="14">
-        <v>0.35249999999999998</v>
+        <v>0.36856539605401012</v>
       </c>
       <c r="X13" s="14">
-        <v>0.16969999999999999</v>
+        <v>0.15498714618542622</v>
       </c>
       <c r="Y13" s="14">
-        <v>4.4699999999999997E-2</v>
+        <v>4.8332515018401197E-2</v>
       </c>
       <c r="Z13" s="14">
-        <v>1.6000000000000001E-3</v>
+        <v>1.6221836890200089E-3</v>
       </c>
       <c r="AA13" s="14">
         <v>0</v>
@@ -4710,76 +4723,76 @@
         <v>54</v>
       </c>
       <c r="G14" s="14">
-        <v>0.11269999999999999</v>
+        <v>0.10625478275397357</v>
       </c>
       <c r="H14" s="14">
-        <v>0.11119999999999999</v>
+        <v>0.10267886666877532</v>
       </c>
       <c r="I14" s="14">
-        <v>0.1108</v>
+        <v>0.11883645303726495</v>
       </c>
       <c r="J14" s="14">
-        <v>0.106</v>
+        <v>0.10823962841928911</v>
       </c>
       <c r="K14" s="14">
-        <v>0.1024</v>
+        <v>9.3634564773938361E-2</v>
       </c>
       <c r="L14" s="14">
-        <v>0.1011</v>
+        <v>0.10568435705586193</v>
       </c>
       <c r="M14" s="14">
-        <v>9.8199999999999996E-2</v>
+        <v>9.5701913763986388E-2</v>
       </c>
       <c r="N14" s="14">
-        <v>9.4500000000000001E-2</v>
+        <v>8.7742408658967735E-2</v>
       </c>
       <c r="O14" s="14">
-        <v>9.2700000000000005E-2</v>
+        <v>8.9985445194844943E-2</v>
       </c>
       <c r="P14" s="14">
-        <v>9.01E-2</v>
+        <v>8.5415844736249288E-2</v>
       </c>
       <c r="Q14" s="14">
-        <v>8.9200000000000002E-2</v>
+        <v>9.5751685173361453E-2</v>
       </c>
       <c r="R14" s="14">
-        <v>9.3399999999999997E-2</v>
+        <v>0.10079974054584695</v>
       </c>
       <c r="S14" s="14">
-        <v>0.1037</v>
+        <v>0.10308252662460399</v>
       </c>
       <c r="T14" s="14">
-        <v>0.11849999999999999</v>
+        <v>0.12346718702255342</v>
       </c>
       <c r="U14" s="14">
-        <v>0.1356</v>
+        <v>0.13666816994099917</v>
       </c>
       <c r="V14" s="14">
-        <v>0.14949999999999999</v>
+        <v>0.14247784746536196</v>
       </c>
       <c r="W14" s="14">
-        <v>0.1595</v>
+        <v>0.1709481915902604</v>
       </c>
       <c r="X14" s="14">
-        <v>0.16350000000000001</v>
+        <v>0.17893555432417435</v>
       </c>
       <c r="Y14" s="14">
-        <v>0.16039999999999999</v>
+        <v>0.16701675443956826</v>
       </c>
       <c r="Z14" s="14">
-        <v>0.15090000000000001</v>
+        <v>0.13607866821532405</v>
       </c>
       <c r="AA14" s="14">
-        <v>0.13850000000000001</v>
+        <v>0.13019343071475487</v>
       </c>
       <c r="AB14" s="14">
-        <v>0.12759999999999999</v>
+        <v>0.13619768763642623</v>
       </c>
       <c r="AC14" s="14">
-        <v>0.12239999999999999</v>
+        <v>0.11814912086906451</v>
       </c>
       <c r="AD14" s="14">
-        <v>0.12130000000000001</v>
+        <v>0.12958804729376058</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -4797,76 +4810,76 @@
         <v>54</v>
       </c>
       <c r="G15" s="14">
-        <v>0.11269999999999999</v>
+        <v>0.10946355499512166</v>
       </c>
       <c r="H15" s="14">
-        <v>0.11119999999999999</v>
+        <v>0.11909892267245191</v>
       </c>
       <c r="I15" s="14">
-        <v>0.1108</v>
+        <v>0.10554834473584114</v>
       </c>
       <c r="J15" s="14">
-        <v>0.106</v>
+        <v>9.963910583105845E-2</v>
       </c>
       <c r="K15" s="14">
-        <v>0.1024</v>
+        <v>0.10437031336970425</v>
       </c>
       <c r="L15" s="14">
-        <v>0.1011</v>
+        <v>9.8592479887222584E-2</v>
       </c>
       <c r="M15" s="14">
-        <v>9.8199999999999996E-2</v>
+        <v>9.02167523478314E-2</v>
       </c>
       <c r="N15" s="14">
-        <v>9.4500000000000001E-2</v>
+        <v>9.704241914347736E-2</v>
       </c>
       <c r="O15" s="14">
-        <v>9.2700000000000005E-2</v>
+        <v>9.4380206680397566E-2</v>
       </c>
       <c r="P15" s="14">
-        <v>9.01E-2</v>
+        <v>9.8555565994815283E-2</v>
       </c>
       <c r="Q15" s="14">
-        <v>8.9200000000000002E-2</v>
+        <v>8.4453958698456205E-2</v>
       </c>
       <c r="R15" s="14">
-        <v>9.3399999999999997E-2</v>
+        <v>0.10144588874066947</v>
       </c>
       <c r="S15" s="14">
-        <v>0.1037</v>
+        <v>0.10223274800553932</v>
       </c>
       <c r="T15" s="14">
-        <v>0.11849999999999999</v>
+        <v>0.11527942443173585</v>
       </c>
       <c r="U15" s="14">
-        <v>0.1356</v>
+        <v>0.13818455774497357</v>
       </c>
       <c r="V15" s="14">
-        <v>0.14949999999999999</v>
+        <v>0.14762773528267084</v>
       </c>
       <c r="W15" s="14">
-        <v>0.1595</v>
+        <v>0.1455347766765494</v>
       </c>
       <c r="X15" s="14">
-        <v>0.16350000000000001</v>
+        <v>0.17050376423580377</v>
       </c>
       <c r="Y15" s="14">
-        <v>0.16039999999999999</v>
+        <v>0.16159685744883481</v>
       </c>
       <c r="Z15" s="14">
-        <v>0.15090000000000001</v>
+        <v>0.15067849126350566</v>
       </c>
       <c r="AA15" s="14">
-        <v>0.13850000000000001</v>
+        <v>0.13190507789036496</v>
       </c>
       <c r="AB15" s="14">
-        <v>0.12759999999999999</v>
+        <v>0.11536816087274859</v>
       </c>
       <c r="AC15" s="14">
-        <v>0.12239999999999999</v>
+        <v>0.12838105032382208</v>
       </c>
       <c r="AD15" s="14">
-        <v>0.12130000000000001</v>
+        <v>0.12321829428877951</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -4899,46 +4912,46 @@
         <v>0</v>
       </c>
       <c r="L16" s="14">
-        <v>5.9999999999999995E-4</v>
+        <v>5.6648813895634695E-4</v>
       </c>
       <c r="M16" s="14">
-        <v>4.1700000000000001E-2</v>
+        <v>4.2685147252115037E-2</v>
       </c>
       <c r="N16" s="14">
-        <v>0.1946</v>
+        <v>0.20348250047810995</v>
       </c>
       <c r="O16" s="14">
-        <v>0.4</v>
+        <v>0.39323133417306483</v>
       </c>
       <c r="P16" s="14">
-        <v>0.58479999999999999</v>
+        <v>0.53102292352687641</v>
       </c>
       <c r="Q16" s="14">
-        <v>0.71789999999999998</v>
+        <v>0.7482198233805295</v>
       </c>
       <c r="R16" s="14">
-        <v>0.78680000000000005</v>
+        <v>0.7364018087769616</v>
       </c>
       <c r="S16" s="14">
-        <v>0.79359999999999997</v>
+        <v>0.74288621970987889</v>
       </c>
       <c r="T16" s="14">
-        <v>0.73599999999999999</v>
+        <v>0.80370780544164011</v>
       </c>
       <c r="U16" s="14">
-        <v>0.62239999999999995</v>
+        <v>0.61598832124842773</v>
       </c>
       <c r="V16" s="14">
-        <v>0.45850000000000002</v>
+        <v>0.41270134564621241</v>
       </c>
       <c r="W16" s="14">
-        <v>0.26590000000000003</v>
+        <v>0.26512871241695046</v>
       </c>
       <c r="X16" s="14">
-        <v>9.0899999999999995E-2</v>
+        <v>8.7176874398828194E-2</v>
       </c>
       <c r="Y16" s="14">
-        <v>7.1999999999999998E-3</v>
+        <v>7.71933859607406E-3</v>
       </c>
       <c r="Z16" s="14">
         <v>0</v>
@@ -4986,46 +4999,46 @@
         <v>0</v>
       </c>
       <c r="L17" s="14">
-        <v>5.9999999999999995E-4</v>
+        <v>6.4434762866299664E-4</v>
       </c>
       <c r="M17" s="14">
-        <v>4.1700000000000001E-2</v>
+        <v>4.3009623696404112E-2</v>
       </c>
       <c r="N17" s="14">
-        <v>0.1946</v>
+        <v>0.20790202261623136</v>
       </c>
       <c r="O17" s="14">
-        <v>0.4</v>
+        <v>0.36407740983967174</v>
       </c>
       <c r="P17" s="14">
-        <v>0.58479999999999999</v>
+        <v>0.62189428032366123</v>
       </c>
       <c r="Q17" s="14">
-        <v>0.71789999999999998</v>
+        <v>0.68996081202871162</v>
       </c>
       <c r="R17" s="14">
-        <v>0.78680000000000005</v>
+        <v>0.73861091922625555</v>
       </c>
       <c r="S17" s="14">
-        <v>0.79359999999999997</v>
+        <v>0.82568401898162369</v>
       </c>
       <c r="T17" s="14">
-        <v>0.73599999999999999</v>
+        <v>0.76700398434115902</v>
       </c>
       <c r="U17" s="14">
-        <v>0.62239999999999995</v>
+        <v>0.65037568020794079</v>
       </c>
       <c r="V17" s="14">
-        <v>0.45850000000000002</v>
+        <v>0.46015584632596879</v>
       </c>
       <c r="W17" s="14">
-        <v>0.26590000000000003</v>
+        <v>0.25131642978263802</v>
       </c>
       <c r="X17" s="14">
-        <v>9.0899999999999995E-2</v>
+        <v>8.8194149012730969E-2</v>
       </c>
       <c r="Y17" s="14">
-        <v>7.1999999999999998E-3</v>
+        <v>6.6765712906580845E-3</v>
       </c>
       <c r="Z17" s="14">
         <v>0</v>
@@ -5058,76 +5071,76 @@
         <v>54</v>
       </c>
       <c r="G18" s="14">
-        <v>0.1482</v>
+        <v>0.16025209779518862</v>
       </c>
       <c r="H18" s="14">
-        <v>0.1525</v>
+        <v>0.14086093917842557</v>
       </c>
       <c r="I18" s="14">
-        <v>0.1552</v>
+        <v>0.14044855021579639</v>
       </c>
       <c r="J18" s="14">
-        <v>0.15090000000000001</v>
+        <v>0.14469000076748897</v>
       </c>
       <c r="K18" s="14">
-        <v>0.14299999999999999</v>
+        <v>0.13080947399587764</v>
       </c>
       <c r="L18" s="14">
-        <v>0.1358</v>
+        <v>0.131423899671512</v>
       </c>
       <c r="M18" s="14">
-        <v>0.12939999999999999</v>
+        <v>0.11753163879798177</v>
       </c>
       <c r="N18" s="14">
-        <v>0.1196</v>
+        <v>0.1120215532250797</v>
       </c>
       <c r="O18" s="14">
-        <v>0.109</v>
+        <v>0.10972502183817678</v>
       </c>
       <c r="P18" s="14">
-        <v>0.1028</v>
+        <v>9.4546459317978213E-2</v>
       </c>
       <c r="Q18" s="14">
-        <v>0.1017</v>
+        <v>9.6233764281022691E-2</v>
       </c>
       <c r="R18" s="14">
-        <v>0.104</v>
+        <v>0.10414819202165608</v>
       </c>
       <c r="S18" s="14">
-        <v>0.1079</v>
+        <v>0.112934524348428</v>
       </c>
       <c r="T18" s="14">
-        <v>0.11260000000000001</v>
+        <v>0.12249897840824597</v>
       </c>
       <c r="U18" s="14">
-        <v>0.1193</v>
+        <v>0.12822369177542081</v>
       </c>
       <c r="V18" s="14">
-        <v>0.12759999999999999</v>
+        <v>0.12182815420017692</v>
       </c>
       <c r="W18" s="14">
-        <v>0.13589999999999999</v>
+        <v>0.12467412814854063</v>
       </c>
       <c r="X18" s="14">
-        <v>0.1434</v>
+        <v>0.15409438618649737</v>
       </c>
       <c r="Y18" s="14">
-        <v>0.14940000000000001</v>
+        <v>0.14445223594653989</v>
       </c>
       <c r="Z18" s="14">
-        <v>0.15040000000000001</v>
+        <v>0.15911697230987731</v>
       </c>
       <c r="AA18" s="14">
-        <v>0.14749999999999999</v>
+        <v>0.16126523405457729</v>
       </c>
       <c r="AB18" s="14">
-        <v>0.1477</v>
+        <v>0.14441602706259316</v>
       </c>
       <c r="AC18" s="14">
-        <v>0.15229999999999999</v>
+        <v>0.13803483468119926</v>
       </c>
       <c r="AD18" s="14">
-        <v>0.15939999999999999</v>
+        <v>0.16112477729011929</v>
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.25">
@@ -5145,76 +5158,76 @@
         <v>54</v>
       </c>
       <c r="G19" s="14">
-        <v>0.1482</v>
+        <v>0.14521603068690836</v>
       </c>
       <c r="H19" s="14">
-        <v>0.1525</v>
+        <v>0.14379839232052774</v>
       </c>
       <c r="I19" s="14">
-        <v>0.1552</v>
+        <v>0.16725174393488909</v>
       </c>
       <c r="J19" s="14">
-        <v>0.15090000000000001</v>
+        <v>0.13991573696912388</v>
       </c>
       <c r="K19" s="14">
-        <v>0.14299999999999999</v>
+        <v>0.13730292790404675</v>
       </c>
       <c r="L19" s="14">
-        <v>0.1358</v>
+        <v>0.12926189566114113</v>
       </c>
       <c r="M19" s="14">
-        <v>0.12939999999999999</v>
+        <v>0.13084717566441614</v>
       </c>
       <c r="N19" s="14">
-        <v>0.1196</v>
+        <v>0.1243516514362399</v>
       </c>
       <c r="O19" s="14">
-        <v>0.109</v>
+        <v>0.11163038391709393</v>
       </c>
       <c r="P19" s="14">
-        <v>0.1028</v>
+        <v>0.10764428665167738</v>
       </c>
       <c r="Q19" s="14">
-        <v>0.1017</v>
+        <v>0.10905414997334374</v>
       </c>
       <c r="R19" s="14">
-        <v>0.104</v>
+        <v>0.11126194283478218</v>
       </c>
       <c r="S19" s="14">
-        <v>0.1079</v>
+        <v>0.11288286701675897</v>
       </c>
       <c r="T19" s="14">
-        <v>0.11260000000000001</v>
+        <v>0.12092197742044479</v>
       </c>
       <c r="U19" s="14">
-        <v>0.1193</v>
+        <v>0.11593890471652153</v>
       </c>
       <c r="V19" s="14">
-        <v>0.12759999999999999</v>
+        <v>0.11899921722379814</v>
       </c>
       <c r="W19" s="14">
-        <v>0.13589999999999999</v>
+        <v>0.1245254258015602</v>
       </c>
       <c r="X19" s="14">
-        <v>0.1434</v>
+        <v>0.14512103173748361</v>
       </c>
       <c r="Y19" s="14">
-        <v>0.14940000000000001</v>
+        <v>0.16031630262653626</v>
       </c>
       <c r="Z19" s="14">
-        <v>0.15040000000000001</v>
+        <v>0.13792081342884382</v>
       </c>
       <c r="AA19" s="14">
-        <v>0.14749999999999999</v>
+        <v>0.13456469475172775</v>
       </c>
       <c r="AB19" s="14">
-        <v>0.1477</v>
+        <v>0.15177977308666404</v>
       </c>
       <c r="AC19" s="14">
-        <v>0.15229999999999999</v>
+        <v>0.15161937310352239</v>
       </c>
       <c r="AD19" s="14">
-        <v>0.15939999999999999</v>
+        <v>0.17362149469425003</v>
       </c>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.25">
@@ -5247,46 +5260,46 @@
         <v>0</v>
       </c>
       <c r="L20" s="14">
-        <v>2.0000000000000001E-4</v>
+        <v>1.9692606048306711E-4</v>
       </c>
       <c r="M20" s="14">
-        <v>8.6999999999999994E-3</v>
+        <v>8.9541135239190987E-3</v>
       </c>
       <c r="N20" s="14">
-        <v>6.6400000000000001E-2</v>
+        <v>7.1486658572330108E-2</v>
       </c>
       <c r="O20" s="14">
-        <v>0.20119999999999999</v>
+        <v>0.21147924675313592</v>
       </c>
       <c r="P20" s="14">
-        <v>0.3609</v>
+        <v>0.35787825672265189</v>
       </c>
       <c r="Q20" s="14">
-        <v>0.49659999999999999</v>
+        <v>0.51050862155396948</v>
       </c>
       <c r="R20" s="14">
-        <v>0.57430000000000003</v>
+        <v>0.55638074768806678</v>
       </c>
       <c r="S20" s="14">
-        <v>0.58750000000000002</v>
+        <v>0.59966007070205818</v>
       </c>
       <c r="T20" s="14">
-        <v>0.53920000000000001</v>
+        <v>0.52316750218185137</v>
       </c>
       <c r="U20" s="14">
-        <v>0.43790000000000001</v>
+        <v>0.47036473955189101</v>
       </c>
       <c r="V20" s="14">
-        <v>0.2928</v>
+        <v>0.26942108291920214</v>
       </c>
       <c r="W20" s="14">
-        <v>0.1313</v>
+        <v>0.1390691642962095</v>
       </c>
       <c r="X20" s="14">
-        <v>2.7799999999999998E-2</v>
+        <v>2.8709662926188519E-2</v>
       </c>
       <c r="Y20" s="14">
-        <v>2.0999999999999999E-3</v>
+        <v>2.0907728388270259E-3</v>
       </c>
       <c r="Z20" s="14">
         <v>0</v>
@@ -5334,46 +5347,46 @@
         <v>0</v>
       </c>
       <c r="L21" s="14">
-        <v>2.0000000000000001E-4</v>
+        <v>2.0046676139245744E-4</v>
       </c>
       <c r="M21" s="14">
-        <v>8.6999999999999994E-3</v>
+        <v>8.8881854303533309E-3</v>
       </c>
       <c r="N21" s="14">
-        <v>6.6400000000000001E-2</v>
+        <v>6.9078706961204703E-2</v>
       </c>
       <c r="O21" s="14">
-        <v>0.20119999999999999</v>
+        <v>0.21518989202538058</v>
       </c>
       <c r="P21" s="14">
-        <v>0.3609</v>
+        <v>0.38521678529521752</v>
       </c>
       <c r="Q21" s="14">
-        <v>0.49659999999999999</v>
+        <v>0.5376994641351216</v>
       </c>
       <c r="R21" s="14">
-        <v>0.57430000000000003</v>
+        <v>0.52428252266181408</v>
       </c>
       <c r="S21" s="14">
-        <v>0.58750000000000002</v>
+        <v>0.53015066386232879</v>
       </c>
       <c r="T21" s="14">
-        <v>0.53920000000000001</v>
+        <v>0.56399368884067791</v>
       </c>
       <c r="U21" s="14">
-        <v>0.43790000000000001</v>
+        <v>0.40093798387976542</v>
       </c>
       <c r="V21" s="14">
-        <v>0.2928</v>
+        <v>0.27214055379098739</v>
       </c>
       <c r="W21" s="14">
-        <v>0.1313</v>
+        <v>0.14252185338757239</v>
       </c>
       <c r="X21" s="14">
-        <v>2.7799999999999998E-2</v>
+        <v>2.5904147458980599E-2</v>
       </c>
       <c r="Y21" s="14">
-        <v>2.0999999999999999E-3</v>
+        <v>2.2554225131560792E-3</v>
       </c>
       <c r="Z21" s="14">
         <v>0</v>
@@ -5406,76 +5419,76 @@
         <v>54</v>
       </c>
       <c r="G22" s="14">
-        <v>0.54010000000000002</v>
+        <v>0.50639130337133553</v>
       </c>
       <c r="H22" s="14">
-        <v>0.53549999999999998</v>
+        <v>0.49015461713807024</v>
       </c>
       <c r="I22" s="14">
-        <v>0.5272</v>
+        <v>0.54036991612980523</v>
       </c>
       <c r="J22" s="14">
-        <v>0.51829999999999998</v>
+        <v>0.46889734872336764</v>
       </c>
       <c r="K22" s="14">
-        <v>0.50780000000000003</v>
+        <v>0.50935442065386094</v>
       </c>
       <c r="L22" s="14">
-        <v>0.49509999999999998</v>
+        <v>0.52217983143079139</v>
       </c>
       <c r="M22" s="14">
-        <v>0.4839</v>
+        <v>0.49978323278092818</v>
       </c>
       <c r="N22" s="14">
-        <v>0.47339999999999999</v>
+        <v>0.50735155412615662</v>
       </c>
       <c r="O22" s="14">
-        <v>0.46150000000000002</v>
+        <v>0.45197888455548274</v>
       </c>
       <c r="P22" s="14">
-        <v>0.45440000000000003</v>
+        <v>0.45638728260786293</v>
       </c>
       <c r="Q22" s="14">
-        <v>0.45429999999999998</v>
+        <v>0.42891196985845997</v>
       </c>
       <c r="R22" s="14">
-        <v>0.44650000000000001</v>
+        <v>0.40332219646099438</v>
       </c>
       <c r="S22" s="14">
-        <v>0.4294</v>
+        <v>0.44901357680617843</v>
       </c>
       <c r="T22" s="14">
-        <v>0.40510000000000002</v>
+        <v>0.43701025741508193</v>
       </c>
       <c r="U22" s="14">
-        <v>0.37840000000000001</v>
+        <v>0.39944258679589312</v>
       </c>
       <c r="V22" s="14">
-        <v>0.35460000000000003</v>
+        <v>0.35096868674105913</v>
       </c>
       <c r="W22" s="14">
-        <v>0.34310000000000002</v>
+        <v>0.35009638060068576</v>
       </c>
       <c r="X22" s="14">
-        <v>0.3493</v>
+        <v>0.32523352816934353</v>
       </c>
       <c r="Y22" s="14">
-        <v>0.36370000000000002</v>
+        <v>0.39485382614677839</v>
       </c>
       <c r="Z22" s="14">
-        <v>0.38329999999999997</v>
+        <v>0.38602619798840476</v>
       </c>
       <c r="AA22" s="14">
-        <v>0.40570000000000001</v>
+        <v>0.40228286224751825</v>
       </c>
       <c r="AB22" s="14">
-        <v>0.43030000000000002</v>
+        <v>0.43443423845751178</v>
       </c>
       <c r="AC22" s="14">
-        <v>0.45519999999999999</v>
+        <v>0.42971559478629845</v>
       </c>
       <c r="AD22" s="14">
-        <v>0.47939999999999999</v>
+        <v>0.48509443200381525</v>
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.25">
@@ -5493,76 +5506,76 @@
         <v>54</v>
       </c>
       <c r="G23" s="14">
-        <v>0.54010000000000002</v>
+        <v>0.51108363356425279</v>
       </c>
       <c r="H23" s="14">
-        <v>0.53549999999999998</v>
+        <v>0.54774132951068566</v>
       </c>
       <c r="I23" s="14">
-        <v>0.5272</v>
+        <v>0.52626010928326517</v>
       </c>
       <c r="J23" s="14">
-        <v>0.51829999999999998</v>
+        <v>0.55961002667050341</v>
       </c>
       <c r="K23" s="14">
-        <v>0.50780000000000003</v>
+        <v>0.51734265573950611</v>
       </c>
       <c r="L23" s="14">
-        <v>0.49509999999999998</v>
+        <v>0.52965718325984523</v>
       </c>
       <c r="M23" s="14">
-        <v>0.4839</v>
+        <v>0.52429955257393168</v>
       </c>
       <c r="N23" s="14">
-        <v>0.47339999999999999</v>
+        <v>0.43821196388165212</v>
       </c>
       <c r="O23" s="14">
-        <v>0.46150000000000002</v>
+        <v>0.47454423464639128</v>
       </c>
       <c r="P23" s="14">
-        <v>0.45440000000000003</v>
+        <v>0.46348135626933723</v>
       </c>
       <c r="Q23" s="14">
-        <v>0.45429999999999998</v>
+        <v>0.42547296387824035</v>
       </c>
       <c r="R23" s="14">
-        <v>0.44650000000000001</v>
+        <v>0.42211863286652024</v>
       </c>
       <c r="S23" s="14">
-        <v>0.4294</v>
+        <v>0.47151812787835651</v>
       </c>
       <c r="T23" s="14">
-        <v>0.40510000000000002</v>
+        <v>0.4004512291686958</v>
       </c>
       <c r="U23" s="14">
-        <v>0.37840000000000001</v>
+        <v>0.37473891968971307</v>
       </c>
       <c r="V23" s="14">
-        <v>0.35460000000000003</v>
+        <v>0.34341916094741282</v>
       </c>
       <c r="W23" s="14">
-        <v>0.34310000000000002</v>
+        <v>0.37704900317199147</v>
       </c>
       <c r="X23" s="14">
-        <v>0.3493</v>
+        <v>0.34987721385869602</v>
       </c>
       <c r="Y23" s="14">
-        <v>0.36370000000000002</v>
+        <v>0.36419640540747467</v>
       </c>
       <c r="Z23" s="14">
-        <v>0.38329999999999997</v>
+        <v>0.41071505018842025</v>
       </c>
       <c r="AA23" s="14">
-        <v>0.40570000000000001</v>
+        <v>0.36637702684187318</v>
       </c>
       <c r="AB23" s="14">
-        <v>0.43030000000000002</v>
+        <v>0.43369179845983408</v>
       </c>
       <c r="AC23" s="14">
-        <v>0.45519999999999999</v>
+        <v>0.49826837839131927</v>
       </c>
       <c r="AD23" s="14">
-        <v>0.47939999999999999</v>
+        <v>0.51419014024094112</v>
       </c>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.25">
@@ -5595,49 +5608,49 @@
         <v>0</v>
       </c>
       <c r="L24" s="14">
-        <v>1.78E-2</v>
+        <v>1.7302280898107064E-2</v>
       </c>
       <c r="M24" s="14">
-        <v>0.1158</v>
+        <v>0.12409410689962062</v>
       </c>
       <c r="N24" s="14">
-        <v>0.29759999999999998</v>
+        <v>0.32722020003073665</v>
       </c>
       <c r="O24" s="14">
-        <v>0.50449999999999995</v>
+        <v>0.55298564980272802</v>
       </c>
       <c r="P24" s="14">
-        <v>0.67769999999999997</v>
+        <v>0.62276283988753822</v>
       </c>
       <c r="Q24" s="14">
-        <v>0.79630000000000001</v>
+        <v>0.84096708237722817</v>
       </c>
       <c r="R24" s="14">
-        <v>0.8569</v>
+        <v>0.86063004397755305</v>
       </c>
       <c r="S24" s="14">
-        <v>0.86129999999999995</v>
+        <v>0.87604551976002387</v>
       </c>
       <c r="T24" s="14">
-        <v>0.81100000000000005</v>
+        <v>0.86368740298995095</v>
       </c>
       <c r="U24" s="14">
-        <v>0.70779999999999998</v>
+        <v>0.65531667920645997</v>
       </c>
       <c r="V24" s="14">
-        <v>0.55689999999999995</v>
+        <v>0.52176868318406511</v>
       </c>
       <c r="W24" s="14">
-        <v>0.37090000000000001</v>
+        <v>0.34512859565778081</v>
       </c>
       <c r="X24" s="14">
-        <v>0.17810000000000001</v>
+        <v>0.18606234292740206</v>
       </c>
       <c r="Y24" s="14">
-        <v>5.1400000000000001E-2</v>
+        <v>5.0817019112024506E-2</v>
       </c>
       <c r="Z24" s="14">
-        <v>2.0999999999999999E-3</v>
+        <v>1.9424343082440278E-3</v>
       </c>
       <c r="AA24" s="14">
         <v>0</v>
@@ -5682,49 +5695,49 @@
         <v>0</v>
       </c>
       <c r="L25" s="14">
-        <v>1.78E-2</v>
+        <v>1.9451774052689077E-2</v>
       </c>
       <c r="M25" s="14">
-        <v>0.1158</v>
+        <v>0.10704214770465149</v>
       </c>
       <c r="N25" s="14">
-        <v>0.29759999999999998</v>
+        <v>0.31742127634775386</v>
       </c>
       <c r="O25" s="14">
-        <v>0.50449999999999995</v>
+        <v>0.50839414034993358</v>
       </c>
       <c r="P25" s="14">
-        <v>0.67769999999999997</v>
+        <v>0.73847886830378295</v>
       </c>
       <c r="Q25" s="14">
-        <v>0.79630000000000001</v>
+        <v>0.7365590795877881</v>
       </c>
       <c r="R25" s="14">
-        <v>0.8569</v>
+        <v>0.91476632815394365</v>
       </c>
       <c r="S25" s="14">
-        <v>0.86129999999999995</v>
+        <v>0.78464762336171878</v>
       </c>
       <c r="T25" s="14">
-        <v>0.81100000000000005</v>
+        <v>0.73944539782142915</v>
       </c>
       <c r="U25" s="14">
-        <v>0.70779999999999998</v>
+        <v>0.76099710226440476</v>
       </c>
       <c r="V25" s="14">
-        <v>0.55689999999999995</v>
+        <v>0.52550695836228445</v>
       </c>
       <c r="W25" s="14">
-        <v>0.37090000000000001</v>
+        <v>0.38128917768041709</v>
       </c>
       <c r="X25" s="14">
-        <v>0.17810000000000001</v>
+        <v>0.16876148856476597</v>
       </c>
       <c r="Y25" s="14">
-        <v>5.1400000000000001E-2</v>
+        <v>4.6312572389887188E-2</v>
       </c>
       <c r="Z25" s="14">
-        <v>2.0999999999999999E-3</v>
+        <v>2.0460141378559511E-3</v>
       </c>
       <c r="AA25" s="14">
         <v>0</v>
@@ -5754,76 +5767,76 @@
         <v>54</v>
       </c>
       <c r="G26" s="14">
-        <v>0.32819999999999999</v>
+        <v>0.30399332791390893</v>
       </c>
       <c r="H26" s="14">
-        <v>0.34360000000000002</v>
+        <v>0.34417976329669608</v>
       </c>
       <c r="I26" s="14">
-        <v>0.36009999999999998</v>
+        <v>0.3528953887373022</v>
       </c>
       <c r="J26" s="14">
-        <v>0.36780000000000002</v>
+        <v>0.36265596014187101</v>
       </c>
       <c r="K26" s="14">
-        <v>0.37309999999999999</v>
+        <v>0.4080426042082913</v>
       </c>
       <c r="L26" s="14">
-        <v>0.37809999999999999</v>
+        <v>0.39857934848290888</v>
       </c>
       <c r="M26" s="14">
-        <v>0.38269999999999998</v>
+        <v>0.40341288157687027</v>
       </c>
       <c r="N26" s="14">
-        <v>0.39190000000000003</v>
+        <v>0.42004272299154188</v>
       </c>
       <c r="O26" s="14">
-        <v>0.40679999999999999</v>
+        <v>0.3832857506216541</v>
       </c>
       <c r="P26" s="14">
-        <v>0.43080000000000002</v>
+        <v>0.40516294200428998</v>
       </c>
       <c r="Q26" s="14">
-        <v>0.45419999999999999</v>
+        <v>0.4219647211952996</v>
       </c>
       <c r="R26" s="14">
-        <v>0.46949999999999997</v>
+        <v>0.49546115688533021</v>
       </c>
       <c r="S26" s="14">
-        <v>0.47410000000000002</v>
+        <v>0.49379712336766163</v>
       </c>
       <c r="T26" s="14">
-        <v>0.46949999999999997</v>
+        <v>0.45682008729811391</v>
       </c>
       <c r="U26" s="14">
-        <v>0.45850000000000002</v>
+        <v>0.45621992710997189</v>
       </c>
       <c r="V26" s="14">
-        <v>0.43690000000000001</v>
+        <v>0.41480928014757207</v>
       </c>
       <c r="W26" s="14">
-        <v>0.40629999999999999</v>
+        <v>0.4418434931109429</v>
       </c>
       <c r="X26" s="14">
-        <v>0.37619999999999998</v>
+        <v>0.37143305402878002</v>
       </c>
       <c r="Y26" s="14">
-        <v>0.3458</v>
+        <v>0.34214358762506553</v>
       </c>
       <c r="Z26" s="14">
-        <v>0.31719999999999998</v>
+        <v>0.32464453926094272</v>
       </c>
       <c r="AA26" s="14">
-        <v>0.29780000000000001</v>
+        <v>0.2999339711193254</v>
       </c>
       <c r="AB26" s="14">
-        <v>0.29139999999999999</v>
+        <v>0.26473921538957179</v>
       </c>
       <c r="AC26" s="14">
-        <v>0.29060000000000002</v>
+        <v>0.28683871653334075</v>
       </c>
       <c r="AD26" s="14">
-        <v>0.2898</v>
+        <v>0.26315610223319741</v>
       </c>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.25">
@@ -5841,76 +5854,76 @@
         <v>54</v>
       </c>
       <c r="G27" s="14">
-        <v>0.32819999999999999</v>
+        <v>0.32581793446733465</v>
       </c>
       <c r="H27" s="14">
-        <v>0.34360000000000002</v>
+        <v>0.31742885175455848</v>
       </c>
       <c r="I27" s="14">
-        <v>0.36009999999999998</v>
+        <v>0.3812248736583832</v>
       </c>
       <c r="J27" s="14">
-        <v>0.36780000000000002</v>
+        <v>0.36689654007180594</v>
       </c>
       <c r="K27" s="14">
-        <v>0.37309999999999999</v>
+        <v>0.37108568297213979</v>
       </c>
       <c r="L27" s="14">
-        <v>0.37809999999999999</v>
+        <v>0.34133330648379151</v>
       </c>
       <c r="M27" s="14">
-        <v>0.38269999999999998</v>
+        <v>0.36564693583072494</v>
       </c>
       <c r="N27" s="14">
-        <v>0.39190000000000003</v>
+        <v>0.41239696888817173</v>
       </c>
       <c r="O27" s="14">
-        <v>0.40679999999999999</v>
+        <v>0.40936247084509203</v>
       </c>
       <c r="P27" s="14">
-        <v>0.43080000000000002</v>
+        <v>0.39640537334540454</v>
       </c>
       <c r="Q27" s="14">
-        <v>0.45419999999999999</v>
+        <v>0.45428375043100988</v>
       </c>
       <c r="R27" s="14">
-        <v>0.46949999999999997</v>
+        <v>0.44813970933263025</v>
       </c>
       <c r="S27" s="14">
-        <v>0.47410000000000002</v>
+        <v>0.50153087553878561</v>
       </c>
       <c r="T27" s="14">
-        <v>0.46949999999999997</v>
+        <v>0.44892768416108825</v>
       </c>
       <c r="U27" s="14">
-        <v>0.45850000000000002</v>
+        <v>0.41647727450390848</v>
       </c>
       <c r="V27" s="14">
-        <v>0.43690000000000001</v>
+        <v>0.43071631812307903</v>
       </c>
       <c r="W27" s="14">
-        <v>0.40629999999999999</v>
+        <v>0.42404142698362274</v>
       </c>
       <c r="X27" s="14">
-        <v>0.37619999999999998</v>
+        <v>0.36915884093187828</v>
       </c>
       <c r="Y27" s="14">
-        <v>0.3458</v>
+        <v>0.34940687131355164</v>
       </c>
       <c r="Z27" s="14">
-        <v>0.31719999999999998</v>
+        <v>0.33204152001438464</v>
       </c>
       <c r="AA27" s="14">
-        <v>0.29780000000000001</v>
+        <v>0.276200009605856</v>
       </c>
       <c r="AB27" s="14">
-        <v>0.29139999999999999</v>
+        <v>0.28176611938814328</v>
       </c>
       <c r="AC27" s="14">
-        <v>0.29060000000000002</v>
+        <v>0.29871066705852028</v>
       </c>
       <c r="AD27" s="14">
-        <v>0.2898</v>
+        <v>0.30605315881216372</v>
       </c>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.25">
@@ -5949,34 +5962,34 @@
         <v>0</v>
       </c>
       <c r="N28" s="14">
-        <v>5.1999999999999998E-3</v>
+        <v>4.9829683298224211E-3</v>
       </c>
       <c r="O28" s="14">
-        <v>0.11509999999999999</v>
+        <v>0.12169237081285929</v>
       </c>
       <c r="P28" s="14">
-        <v>0.27700000000000002</v>
+        <v>0.29216939644698225</v>
       </c>
       <c r="Q28" s="14">
-        <v>0.41849999999999998</v>
+        <v>0.43871236980568246</v>
       </c>
       <c r="R28" s="14">
-        <v>0.50529999999999997</v>
+        <v>0.50455507843265823</v>
       </c>
       <c r="S28" s="14">
-        <v>0.53449999999999998</v>
+        <v>0.56529995159201718</v>
       </c>
       <c r="T28" s="14">
-        <v>0.49769999999999998</v>
+        <v>0.52805837439015801</v>
       </c>
       <c r="U28" s="14">
-        <v>0.39550000000000002</v>
+        <v>0.42251001582608544</v>
       </c>
       <c r="V28" s="14">
-        <v>0.2324</v>
+        <v>0.24940178182957232</v>
       </c>
       <c r="W28" s="14">
-        <v>4.9500000000000002E-2</v>
+        <v>5.105539762090873E-2</v>
       </c>
       <c r="X28" s="14">
         <v>0</v>
@@ -6036,34 +6049,34 @@
         <v>0</v>
       </c>
       <c r="N29" s="14">
-        <v>5.1999999999999998E-3</v>
+        <v>5.450183561016426E-3</v>
       </c>
       <c r="O29" s="14">
-        <v>0.11509999999999999</v>
+        <v>0.11379153956522742</v>
       </c>
       <c r="P29" s="14">
-        <v>0.27700000000000002</v>
+        <v>0.28922116694255368</v>
       </c>
       <c r="Q29" s="14">
-        <v>0.41849999999999998</v>
+        <v>0.38614494419980849</v>
       </c>
       <c r="R29" s="14">
-        <v>0.50529999999999997</v>
+        <v>0.52724899771397793</v>
       </c>
       <c r="S29" s="14">
-        <v>0.53449999999999998</v>
+        <v>0.51584489362883523</v>
       </c>
       <c r="T29" s="14">
-        <v>0.49769999999999998</v>
+        <v>0.47442090921199942</v>
       </c>
       <c r="U29" s="14">
-        <v>0.39550000000000002</v>
+        <v>0.41646635762296041</v>
       </c>
       <c r="V29" s="14">
-        <v>0.2324</v>
+        <v>0.23279135168965698</v>
       </c>
       <c r="W29" s="14">
-        <v>4.9500000000000002E-2</v>
+        <v>5.0345016887611324E-2</v>
       </c>
       <c r="X29" s="14">
         <v>0</v>
@@ -6102,76 +6115,76 @@
         <v>54</v>
       </c>
       <c r="G30" s="14">
-        <v>0.53210000000000002</v>
+        <v>0.54291094358534586</v>
       </c>
       <c r="H30" s="14">
-        <v>0.55700000000000005</v>
+        <v>0.50479543309432251</v>
       </c>
       <c r="I30" s="14">
-        <v>0.5796</v>
+        <v>0.53049632725202667</v>
       </c>
       <c r="J30" s="14">
-        <v>0.59160000000000001</v>
+        <v>0.57144270405333475</v>
       </c>
       <c r="K30" s="14">
-        <v>0.59799999999999998</v>
+        <v>0.60542300399231486</v>
       </c>
       <c r="L30" s="14">
-        <v>0.59889999999999999</v>
+        <v>0.54244342659562106</v>
       </c>
       <c r="M30" s="14">
-        <v>0.59440000000000004</v>
+        <v>0.5588686119082622</v>
       </c>
       <c r="N30" s="14">
-        <v>0.58789999999999998</v>
+        <v>0.60523008456633909</v>
       </c>
       <c r="O30" s="14">
-        <v>0.58199999999999996</v>
+        <v>0.60845635302757728</v>
       </c>
       <c r="P30" s="14">
-        <v>0.59389999999999998</v>
+        <v>0.57887681737768981</v>
       </c>
       <c r="Q30" s="14">
-        <v>0.61470000000000002</v>
+        <v>0.67139631478728379</v>
       </c>
       <c r="R30" s="14">
-        <v>0.64239999999999997</v>
+        <v>0.65799594076840484</v>
       </c>
       <c r="S30" s="14">
-        <v>0.67079999999999995</v>
+        <v>0.62964358114052943</v>
       </c>
       <c r="T30" s="14">
-        <v>0.68830000000000002</v>
+        <v>0.66204280591818498</v>
       </c>
       <c r="U30" s="14">
-        <v>0.69030000000000002</v>
+        <v>0.63533622678704649</v>
       </c>
       <c r="V30" s="14">
-        <v>0.68069999999999997</v>
+        <v>0.70532868537351301</v>
       </c>
       <c r="W30" s="14">
-        <v>0.67630000000000001</v>
+        <v>0.7250926287463525</v>
       </c>
       <c r="X30" s="14">
-        <v>0.67490000000000006</v>
+        <v>0.62315659316887506</v>
       </c>
       <c r="Y30" s="14">
-        <v>0.66510000000000002</v>
+        <v>0.6641989816200693</v>
       </c>
       <c r="Z30" s="14">
-        <v>0.64659999999999995</v>
+        <v>0.61336280806724786</v>
       </c>
       <c r="AA30" s="14">
-        <v>0.62360000000000004</v>
+        <v>0.57646160906822841</v>
       </c>
       <c r="AB30" s="14">
-        <v>0.6048</v>
+        <v>0.61962239381788309</v>
       </c>
       <c r="AC30" s="14">
-        <v>0.59219999999999995</v>
+        <v>0.62990309234890496</v>
       </c>
       <c r="AD30" s="14">
-        <v>0.58879999999999999</v>
+        <v>0.53822340692120196</v>
       </c>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.25">
@@ -6189,76 +6202,76 @@
         <v>54</v>
       </c>
       <c r="G31" s="14">
-        <v>0.53210000000000002</v>
+        <v>0.49806662730729795</v>
       </c>
       <c r="H31" s="14">
-        <v>0.55700000000000005</v>
+        <v>0.53427873234016177</v>
       </c>
       <c r="I31" s="14">
-        <v>0.5796</v>
+        <v>0.57692520145390314</v>
       </c>
       <c r="J31" s="14">
-        <v>0.59160000000000001</v>
+        <v>0.63308391904267491</v>
       </c>
       <c r="K31" s="14">
-        <v>0.59799999999999998</v>
+        <v>0.62270459652402432</v>
       </c>
       <c r="L31" s="14">
-        <v>0.59889999999999999</v>
+        <v>0.62644750047416242</v>
       </c>
       <c r="M31" s="14">
-        <v>0.59440000000000004</v>
+        <v>0.63163968087182176</v>
       </c>
       <c r="N31" s="14">
-        <v>0.58789999999999998</v>
+        <v>0.60639772213358523</v>
       </c>
       <c r="O31" s="14">
-        <v>0.58199999999999996</v>
+        <v>0.5735687706872753</v>
       </c>
       <c r="P31" s="14">
-        <v>0.59389999999999998</v>
+        <v>0.57788300831455708</v>
       </c>
       <c r="Q31" s="14">
-        <v>0.61470000000000002</v>
+        <v>0.56878808647205725</v>
       </c>
       <c r="R31" s="14">
-        <v>0.64239999999999997</v>
+        <v>0.6947302423837971</v>
       </c>
       <c r="S31" s="14">
-        <v>0.67079999999999995</v>
+        <v>0.639722962483675</v>
       </c>
       <c r="T31" s="14">
-        <v>0.68830000000000002</v>
+        <v>0.64121721044962965</v>
       </c>
       <c r="U31" s="14">
-        <v>0.69030000000000002</v>
+        <v>0.68119398329015968</v>
       </c>
       <c r="V31" s="14">
-        <v>0.68069999999999997</v>
+        <v>0.62518852514823364</v>
       </c>
       <c r="W31" s="14">
-        <v>0.67630000000000001</v>
+        <v>0.65043516763133147</v>
       </c>
       <c r="X31" s="14">
-        <v>0.67490000000000006</v>
+        <v>0.63778426965919277</v>
       </c>
       <c r="Y31" s="14">
-        <v>0.66510000000000002</v>
+        <v>0.61129504055272665</v>
       </c>
       <c r="Z31" s="14">
-        <v>0.64659999999999995</v>
+        <v>0.66798897070301244</v>
       </c>
       <c r="AA31" s="14">
-        <v>0.62360000000000004</v>
+        <v>0.67811125560528673</v>
       </c>
       <c r="AB31" s="14">
-        <v>0.6048</v>
+        <v>0.64833088233735992</v>
       </c>
       <c r="AC31" s="14">
-        <v>0.59219999999999995</v>
+        <v>0.54201876117356618</v>
       </c>
       <c r="AD31" s="14">
-        <v>0.58879999999999999</v>
+        <v>0.59221716932566504</v>
       </c>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.25">
@@ -6291,46 +6304,46 @@
         <v>0</v>
       </c>
       <c r="L32" s="14">
-        <v>5.0000000000000001E-4</v>
+        <v>5.3152164816330479E-4</v>
       </c>
       <c r="M32" s="14">
-        <v>7.4999999999999997E-3</v>
+        <v>8.1463275856921286E-3</v>
       </c>
       <c r="N32" s="14">
-        <v>5.0900000000000001E-2</v>
+        <v>5.2659895567612545E-2</v>
       </c>
       <c r="O32" s="14">
-        <v>0.17069999999999999</v>
+        <v>0.17225237885734623</v>
       </c>
       <c r="P32" s="14">
-        <v>0.31459999999999999</v>
+        <v>0.30162529700996987</v>
       </c>
       <c r="Q32" s="14">
-        <v>0.43540000000000001</v>
+        <v>0.45636112750113283</v>
       </c>
       <c r="R32" s="14">
-        <v>0.50670000000000004</v>
+        <v>0.52819341975632261</v>
       </c>
       <c r="S32" s="14">
-        <v>0.51900000000000002</v>
+        <v>0.51375074420233668</v>
       </c>
       <c r="T32" s="14">
-        <v>0.47820000000000001</v>
+        <v>0.5004365902222303</v>
       </c>
       <c r="U32" s="14">
-        <v>0.38769999999999999</v>
+        <v>0.40910862795522429</v>
       </c>
       <c r="V32" s="14">
-        <v>0.25440000000000002</v>
+        <v>0.26076006692422615</v>
       </c>
       <c r="W32" s="14">
-        <v>0.1021</v>
+        <v>0.10854429372366861</v>
       </c>
       <c r="X32" s="14">
-        <v>1.72E-2</v>
+        <v>1.8079624067261206E-2</v>
       </c>
       <c r="Y32" s="14">
-        <v>2.3E-3</v>
+        <v>2.4591461895986486E-3</v>
       </c>
       <c r="Z32" s="14">
         <v>0</v>
@@ -6378,46 +6391,46 @@
         <v>0</v>
       </c>
       <c r="L33" s="14">
-        <v>5.0000000000000001E-4</v>
+        <v>4.5919323382535355E-4</v>
       </c>
       <c r="M33" s="14">
-        <v>7.4999999999999997E-3</v>
+        <v>8.0697754062633159E-3</v>
       </c>
       <c r="N33" s="14">
-        <v>5.0900000000000001E-2</v>
+        <v>5.3859483840155903E-2</v>
       </c>
       <c r="O33" s="14">
-        <v>0.17069999999999999</v>
+        <v>0.15825416418524604</v>
       </c>
       <c r="P33" s="14">
-        <v>0.31459999999999999</v>
+        <v>0.33725947739106632</v>
       </c>
       <c r="Q33" s="14">
-        <v>0.43540000000000001</v>
+        <v>0.43078843734689515</v>
       </c>
       <c r="R33" s="14">
-        <v>0.50670000000000004</v>
+        <v>0.52753212933513738</v>
       </c>
       <c r="S33" s="14">
-        <v>0.51900000000000002</v>
+        <v>0.48121876592288099</v>
       </c>
       <c r="T33" s="14">
-        <v>0.47820000000000001</v>
+        <v>0.44047390864673835</v>
       </c>
       <c r="U33" s="14">
-        <v>0.38769999999999999</v>
+        <v>0.36039330201790964</v>
       </c>
       <c r="V33" s="14">
-        <v>0.25440000000000002</v>
+        <v>0.26227230448643163</v>
       </c>
       <c r="W33" s="14">
-        <v>0.1021</v>
+        <v>9.8341413396395461E-2</v>
       </c>
       <c r="X33" s="14">
-        <v>1.72E-2</v>
+        <v>1.8674092095417025E-2</v>
       </c>
       <c r="Y33" s="14">
-        <v>2.3E-3</v>
+        <v>2.1241029286153835E-3</v>
       </c>
       <c r="Z33" s="14">
         <v>0</v>
@@ -6450,76 +6463,76 @@
         <v>54</v>
       </c>
       <c r="G34" s="14">
-        <v>0.68200000000000005</v>
+        <v>0.63432112636538251</v>
       </c>
       <c r="H34" s="14">
-        <v>0.69289999999999996</v>
+        <v>0.64745499163870057</v>
       </c>
       <c r="I34" s="14">
-        <v>0.7026</v>
+        <v>0.64398489849570539</v>
       </c>
       <c r="J34" s="14">
-        <v>0.71440000000000003</v>
+        <v>0.70336248603113538</v>
       </c>
       <c r="K34" s="14">
-        <v>0.7268</v>
+        <v>0.74816115210629619</v>
       </c>
       <c r="L34" s="14">
-        <v>0.74009999999999998</v>
+        <v>0.81243473898102359</v>
       </c>
       <c r="M34" s="14">
-        <v>0.75129999999999997</v>
+        <v>0.7138590618139069</v>
       </c>
       <c r="N34" s="14">
-        <v>0.75970000000000004</v>
+        <v>0.71257535518849247</v>
       </c>
       <c r="O34" s="14">
-        <v>0.76729999999999998</v>
+        <v>0.70052962039605493</v>
       </c>
       <c r="P34" s="14">
-        <v>0.77800000000000002</v>
+        <v>0.70099355456457324</v>
       </c>
       <c r="Q34" s="14">
-        <v>0.79149999999999998</v>
+        <v>0.84374156171202364</v>
       </c>
       <c r="R34" s="14">
-        <v>0.80369999999999997</v>
+        <v>0.80473632744633794</v>
       </c>
       <c r="S34" s="14">
-        <v>0.81200000000000006</v>
+        <v>0.79438456709297778</v>
       </c>
       <c r="T34" s="14">
-        <v>0.81130000000000002</v>
+        <v>0.88229947543812304</v>
       </c>
       <c r="U34" s="14">
-        <v>0.80200000000000005</v>
+        <v>0.8051307497493001</v>
       </c>
       <c r="V34" s="14">
-        <v>0.78959999999999997</v>
+        <v>0.77945440218155893</v>
       </c>
       <c r="W34" s="14">
-        <v>0.78100000000000003</v>
+        <v>0.74502773262787048</v>
       </c>
       <c r="X34" s="14">
-        <v>0.77439999999999998</v>
+        <v>0.83846765974023241</v>
       </c>
       <c r="Y34" s="14">
-        <v>0.76190000000000002</v>
+        <v>0.79890525805478085</v>
       </c>
       <c r="Z34" s="14">
-        <v>0.75039999999999996</v>
+        <v>0.76979186092084428</v>
       </c>
       <c r="AA34" s="14">
-        <v>0.74329999999999996</v>
+        <v>0.66944661424357066</v>
       </c>
       <c r="AB34" s="14">
-        <v>0.73939999999999995</v>
+        <v>0.69201758057795426</v>
       </c>
       <c r="AC34" s="14">
-        <v>0.73980000000000001</v>
+        <v>0.69715281538408769</v>
       </c>
       <c r="AD34" s="14">
-        <v>0.7379</v>
+        <v>0.69607789936994779</v>
       </c>
     </row>
     <row r="35" spans="2:30" x14ac:dyDescent="0.25">
@@ -6537,76 +6550,76 @@
         <v>54</v>
       </c>
       <c r="G35" s="14">
-        <v>0.68200000000000005</v>
+        <v>0.69803281816752949</v>
       </c>
       <c r="H35" s="14">
-        <v>0.69289999999999996</v>
+        <v>0.71707623628506711</v>
       </c>
       <c r="I35" s="14">
-        <v>0.7026</v>
+        <v>0.65753674247020777</v>
       </c>
       <c r="J35" s="14">
-        <v>0.71440000000000003</v>
+        <v>0.7626509897437781</v>
       </c>
       <c r="K35" s="14">
-        <v>0.7268</v>
+        <v>0.65617390384310503</v>
       </c>
       <c r="L35" s="14">
-        <v>0.74009999999999998</v>
+        <v>0.6720607316593239</v>
       </c>
       <c r="M35" s="14">
-        <v>0.75129999999999997</v>
+        <v>0.74869182305107407</v>
       </c>
       <c r="N35" s="14">
-        <v>0.75970000000000004</v>
+        <v>0.76642044192219505</v>
       </c>
       <c r="O35" s="14">
-        <v>0.76729999999999998</v>
+        <v>0.74675386564086788</v>
       </c>
       <c r="P35" s="14">
-        <v>0.77800000000000002</v>
+        <v>0.82646162856179139</v>
       </c>
       <c r="Q35" s="14">
-        <v>0.79149999999999998</v>
+        <v>0.76319196699025971</v>
       </c>
       <c r="R35" s="14">
-        <v>0.80369999999999997</v>
+        <v>0.76094193325876203</v>
       </c>
       <c r="S35" s="14">
-        <v>0.81200000000000006</v>
+        <v>0.84683165532149052</v>
       </c>
       <c r="T35" s="14">
-        <v>0.81130000000000002</v>
+        <v>0.85404833809900715</v>
       </c>
       <c r="U35" s="14">
-        <v>0.80200000000000005</v>
+        <v>0.80831160268351332</v>
       </c>
       <c r="V35" s="14">
-        <v>0.78959999999999997</v>
+        <v>0.78396540161259431</v>
       </c>
       <c r="W35" s="14">
-        <v>0.78100000000000003</v>
+        <v>0.78985930616449196</v>
       </c>
       <c r="X35" s="14">
-        <v>0.77439999999999998</v>
+        <v>0.82452136074083926</v>
       </c>
       <c r="Y35" s="14">
-        <v>0.76190000000000002</v>
+        <v>0.72748974931123089</v>
       </c>
       <c r="Z35" s="14">
-        <v>0.75039999999999996</v>
+        <v>0.7530182099075533</v>
       </c>
       <c r="AA35" s="14">
-        <v>0.74329999999999996</v>
+        <v>0.715885164929285</v>
       </c>
       <c r="AB35" s="14">
-        <v>0.73939999999999995</v>
+        <v>0.71946897332431559</v>
       </c>
       <c r="AC35" s="14">
-        <v>0.73980000000000001</v>
+        <v>0.72105946717317038</v>
       </c>
       <c r="AD35" s="14">
-        <v>0.7379</v>
+        <v>0.79571157786849822</v>
       </c>
     </row>
   </sheetData>

--- a/data/exampleStochastic/Power_VRESProfiles.xlsx
+++ b/data/exampleStochastic/Power_VRESProfiles.xlsx
@@ -572,7 +572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -665,7 +665,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.0</t>
+          <t>v0.1.1</t>
         </is>
       </c>
     </row>
@@ -991,7 +991,7 @@
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>Capacity factor for each VRES unit at this k</t>
+          <t>Capacity factor at this representative time step k</t>
         </is>
       </c>
       <c r="H5" s="7" t="n"/>
@@ -4030,12 +4030,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4128,7 +4128,7 @@
       </c>
       <c r="C2" s="4" t="inlineStr">
         <is>
-          <t>v0.1.0</t>
+          <t>v0.1.1</t>
         </is>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       </c>
       <c r="G5" s="8" t="inlineStr">
         <is>
-          <t>Capacity factor for each VRES unit at this k</t>
+          <t>Capacity factor at this representative time step k</t>
         </is>
       </c>
       <c r="H5" s="7" t="n"/>
@@ -7493,6 +7493,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing r:id="anysvml"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
 </worksheet>
 </file>
--- a/data/exampleStochastic/Power_VRESProfiles.xlsx
+++ b/data/exampleStochastic/Power_VRESProfiles.xlsx
@@ -621,7 +621,7 @@
     <col width="11.2809375" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>
@@ -4084,7 +4084,7 @@
     <col width="11.2809375" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="24" customHeight="1">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="2" t="inlineStr">
         <is>

--- a/data/exampleStochastic/Power_VRESProfiles.xlsx
+++ b/data/exampleStochastic/Power_VRESProfiles.xlsx
@@ -29,7 +29,7 @@
     <font>
       <name val="Aptos"/>
       <b val="1"/>
-      <color rgb="00FFFFFF"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="18"/>
     </font>
     <font>
@@ -44,7 +44,7 @@
     </font>
     <font>
       <name val="Aptos"/>
-      <color rgb="000000FF"/>
+      <color rgb="FF0000FF"/>
       <sz val="11"/>
     </font>
     <font>
@@ -61,38 +61,38 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00008080"/>
-        <bgColor rgb="00008080"/>
+        <fgColor rgb="FF008080"/>
+        <bgColor rgb="FF008080"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00DAEEF3"/>
-        <bgColor rgb="00DAEEF3"/>
+        <fgColor rgb="FFDAEEF3"/>
+        <bgColor rgb="FFDAEEF3"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00D9D9D9"/>
-        <bgColor rgb="00D9D9D9"/>
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FFD9D9D9"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
-        <bgColor rgb="00F2F2F2"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FFF2F2F2"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00CCFFCC"/>
-        <bgColor rgb="00CCFFCC"/>
+        <fgColor rgb="FFCCFFCC"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00B8CCE4"/>
-        <bgColor rgb="00B8CCE4"/>
+        <fgColor rgb="FFB8CCE4"/>
+        <bgColor rgb="FFB8CCE4"/>
       </patternFill>
     </fill>
   </fills>
@@ -572,7 +572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -589,36 +589,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
-    <col width="24.5709375" customWidth="1" min="5" max="5"/>
-    <col width="24.5709375" customWidth="1" min="6" max="6"/>
-    <col width="11.2809375" customWidth="1" min="7" max="7"/>
-    <col width="11.2809375" customWidth="1" min="8" max="8"/>
-    <col width="11.2809375" customWidth="1" min="9" max="9"/>
-    <col width="11.2809375" customWidth="1" min="10" max="10"/>
-    <col width="11.2809375" customWidth="1" min="11" max="11"/>
-    <col width="11.2809375" customWidth="1" min="12" max="12"/>
-    <col width="11.2809375" customWidth="1" min="13" max="13"/>
-    <col width="11.2809375" customWidth="1" min="14" max="14"/>
-    <col width="11.2809375" customWidth="1" min="15" max="15"/>
-    <col width="11.2809375" customWidth="1" min="16" max="16"/>
-    <col width="11.2809375" customWidth="1" min="17" max="17"/>
-    <col width="11.2809375" customWidth="1" min="18" max="18"/>
-    <col width="11.2809375" customWidth="1" min="19" max="19"/>
-    <col width="11.2809375" customWidth="1" min="20" max="20"/>
-    <col width="11.2809375" customWidth="1" min="21" max="21"/>
-    <col width="11.2809375" customWidth="1" min="22" max="22"/>
-    <col width="11.2809375" customWidth="1" min="23" max="23"/>
-    <col width="11.2809375" customWidth="1" min="24" max="24"/>
-    <col width="11.2809375" customWidth="1" min="25" max="25"/>
-    <col width="11.2809375" customWidth="1" min="26" max="26"/>
-    <col width="11.2809375" customWidth="1" min="27" max="27"/>
-    <col width="11.2809375" customWidth="1" min="28" max="28"/>
-    <col width="11.2809375" customWidth="1" min="29" max="29"/>
-    <col width="11.2809375" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="5" max="5"/>
+    <col width="24.5703125" customWidth="1" min="6" max="6"/>
+    <col width="11.28515625" customWidth="1" min="7" max="7"/>
+    <col width="11.28515625" customWidth="1" min="8" max="8"/>
+    <col width="11.28515625" customWidth="1" min="9" max="9"/>
+    <col width="11.28515625" customWidth="1" min="10" max="10"/>
+    <col width="11.28515625" customWidth="1" min="11" max="11"/>
+    <col width="11.28515625" customWidth="1" min="12" max="12"/>
+    <col width="11.28515625" customWidth="1" min="13" max="13"/>
+    <col width="11.28515625" customWidth="1" min="14" max="14"/>
+    <col width="11.28515625" customWidth="1" min="15" max="15"/>
+    <col width="11.28515625" customWidth="1" min="16" max="16"/>
+    <col width="11.28515625" customWidth="1" min="17" max="17"/>
+    <col width="11.28515625" customWidth="1" min="18" max="18"/>
+    <col width="11.28515625" customWidth="1" min="19" max="19"/>
+    <col width="11.28515625" customWidth="1" min="20" max="20"/>
+    <col width="11.28515625" customWidth="1" min="21" max="21"/>
+    <col width="11.28515625" customWidth="1" min="22" max="22"/>
+    <col width="11.28515625" customWidth="1" min="23" max="23"/>
+    <col width="11.28515625" customWidth="1" min="24" max="24"/>
+    <col width="11.28515625" customWidth="1" min="25" max="25"/>
+    <col width="11.28515625" customWidth="1" min="26" max="26"/>
+    <col width="11.28515625" customWidth="1" min="27" max="27"/>
+    <col width="11.28515625" customWidth="1" min="28" max="28"/>
+    <col width="11.28515625" customWidth="1" min="29" max="29"/>
+    <col width="11.28515625" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -4030,12 +4030,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <tabColor rgb="00008080"/>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4052,36 +4052,36 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="5.5709375" customWidth="1" min="1" max="1"/>
+    <col width="5.5703125" customWidth="1" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" min="2" max="2"/>
     <col width="15.7109375" customWidth="1" min="3" max="3"/>
     <col width="15.7109375" customWidth="1" min="4" max="4"/>
-    <col width="24.5709375" customWidth="1" min="5" max="5"/>
-    <col width="24.5709375" customWidth="1" min="6" max="6"/>
-    <col width="11.2809375" customWidth="1" min="7" max="7"/>
-    <col width="11.2809375" customWidth="1" min="8" max="8"/>
-    <col width="11.2809375" customWidth="1" min="9" max="9"/>
-    <col width="11.2809375" customWidth="1" min="10" max="10"/>
-    <col width="11.2809375" customWidth="1" min="11" max="11"/>
-    <col width="11.2809375" customWidth="1" min="12" max="12"/>
-    <col width="11.2809375" customWidth="1" min="13" max="13"/>
-    <col width="11.2809375" customWidth="1" min="14" max="14"/>
-    <col width="11.2809375" customWidth="1" min="15" max="15"/>
-    <col width="11.2809375" customWidth="1" min="16" max="16"/>
-    <col width="11.2809375" customWidth="1" min="17" max="17"/>
-    <col width="11.2809375" customWidth="1" min="18" max="18"/>
-    <col width="11.2809375" customWidth="1" min="19" max="19"/>
-    <col width="11.2809375" customWidth="1" min="20" max="20"/>
-    <col width="11.2809375" customWidth="1" min="21" max="21"/>
-    <col width="11.2809375" customWidth="1" min="22" max="22"/>
-    <col width="11.2809375" customWidth="1" min="23" max="23"/>
-    <col width="11.2809375" customWidth="1" min="24" max="24"/>
-    <col width="11.2809375" customWidth="1" min="25" max="25"/>
-    <col width="11.2809375" customWidth="1" min="26" max="26"/>
-    <col width="11.2809375" customWidth="1" min="27" max="27"/>
-    <col width="11.2809375" customWidth="1" min="28" max="28"/>
-    <col width="11.2809375" customWidth="1" min="29" max="29"/>
-    <col width="11.2809375" customWidth="1" min="30" max="30"/>
+    <col width="24.5703125" customWidth="1" min="5" max="5"/>
+    <col width="24.5703125" customWidth="1" min="6" max="6"/>
+    <col width="11.28515625" customWidth="1" min="7" max="7"/>
+    <col width="11.28515625" customWidth="1" min="8" max="8"/>
+    <col width="11.28515625" customWidth="1" min="9" max="9"/>
+    <col width="11.28515625" customWidth="1" min="10" max="10"/>
+    <col width="11.28515625" customWidth="1" min="11" max="11"/>
+    <col width="11.28515625" customWidth="1" min="12" max="12"/>
+    <col width="11.28515625" customWidth="1" min="13" max="13"/>
+    <col width="11.28515625" customWidth="1" min="14" max="14"/>
+    <col width="11.28515625" customWidth="1" min="15" max="15"/>
+    <col width="11.28515625" customWidth="1" min="16" max="16"/>
+    <col width="11.28515625" customWidth="1" min="17" max="17"/>
+    <col width="11.28515625" customWidth="1" min="18" max="18"/>
+    <col width="11.28515625" customWidth="1" min="19" max="19"/>
+    <col width="11.28515625" customWidth="1" min="20" max="20"/>
+    <col width="11.28515625" customWidth="1" min="21" max="21"/>
+    <col width="11.28515625" customWidth="1" min="22" max="22"/>
+    <col width="11.28515625" customWidth="1" min="23" max="23"/>
+    <col width="11.28515625" customWidth="1" min="24" max="24"/>
+    <col width="11.28515625" customWidth="1" min="25" max="25"/>
+    <col width="11.28515625" customWidth="1" min="26" max="26"/>
+    <col width="11.28515625" customWidth="1" min="27" max="27"/>
+    <col width="11.28515625" customWidth="1" min="28" max="28"/>
+    <col width="11.28515625" customWidth="1" min="29" max="29"/>
+    <col width="11.28515625" customWidth="1" min="30" max="30"/>
   </cols>
   <sheetData>
     <row r="1" ht="24" customHeight="1">
@@ -7493,6 +7493,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
+  <legacyDrawing r:id="anysvml"/>
 </worksheet>
 </file>